--- a/Practicas/Practica 13/STC.xlsx
+++ b/Practicas/Practica 13/STC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\estadistica-avanzada\Practicas\Practica 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E4AF13-56EB-48D1-8E56-1835708B63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{33D09568-AA43-4BC5-80D3-56DE9409FEB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>K = 3</t>
   </si>
@@ -54,13 +53,37 @@
     <t>STC</t>
   </si>
   <si>
-    <t>STC = ()</t>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>V = 5</t>
+  </si>
+  <si>
+    <t>V2 = 18</t>
+  </si>
+  <si>
+    <t>s_1^2 = (1.3345) / 5 =</t>
+  </si>
+  <si>
+    <t>s_2^2 = (66.64375) / 5 =</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>f Tabla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,15 +115,33 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -127,21 +168,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -360,7 +386,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -373,7 +401,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -386,7 +416,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -396,10 +428,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -410,17 +443,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,11 +789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD586A54-BFA4-4D74-B575-CC92B6C18496}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,8 +803,8 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>17.5</v>
       </c>
@@ -770,7 +825,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>16.899999999999999</v>
       </c>
@@ -790,7 +845,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>15.8</v>
       </c>
@@ -810,7 +865,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>18.600000000000001</v>
       </c>
@@ -830,35 +885,35 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="22">
         <f>SUM(B2:B5)</f>
         <v>68.800000000000011</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="23">
         <f t="shared" ref="C6:G6" si="0">SUM(C2:C5)</f>
         <v>68.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
         <v>72.699999999999989</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>72.099999999999994</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="25">
         <f>SUM(B6:G6)</f>
         <v>427</v>
       </c>
@@ -866,35 +921,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="26">
         <f>AVERAGE(B2:B5)</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="27">
         <f t="shared" ref="C7:G7" si="1">AVERAGE(C2:C5)</f>
         <v>17.175000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="27">
         <f t="shared" si="1"/>
         <v>18.174999999999997</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="27">
         <f t="shared" si="1"/>
         <v>17.75</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="27">
         <f t="shared" si="1"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
         <v>18.024999999999999</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="29">
         <f>AVERAGE(B7:G7)</f>
         <v>17.791666666666668</v>
       </c>
@@ -902,13 +957,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>(B2-H7)^2</f>
         <v>8.5069444444445141E-2</v>
@@ -933,9 +983,9 @@
         <f>(G2-H7)^2</f>
         <v>0.25840277777777731</v>
       </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <f>(B3-H7)^2</f>
         <v>0.79506944444444905</v>
@@ -961,7 +1011,7 @@
         <v>2.5334027777777837</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f>(B4-H7)^2</f>
         <v>3.9667361111111128</v>
@@ -987,7 +1037,7 @@
         <v>8.5069444444445141E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <f>(B5-H7)^2</f>
         <v>0.65340277777777811</v>
@@ -1013,42 +1063,131 @@
         <v>5.3284027777777787</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="19">
         <f>SUM(B11:B14)</f>
         <v>5.5002777777777849</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <f t="shared" ref="C15:G15" si="2">SUM(C11:C14)</f>
         <v>9.6486111111111175</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <f t="shared" si="2"/>
         <v>11.895277777777778</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <f t="shared" si="2"/>
         <v>21.656944444444449</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="20">
         <f t="shared" si="2"/>
         <v>11.071944444444437</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
         <v>8.2052777777777841</v>
       </c>
-      <c r="H15" s="15">
-        <f>SUM(B15:G15)</f>
-        <v>67.978333333333353</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="19">
+        <f>(B7-H7)^2</f>
+        <v>0.35006944444444249</v>
+      </c>
+      <c r="K15" s="20">
+        <f>(C7-H7)^2</f>
+        <v>0.38027777777777838</v>
+      </c>
+      <c r="L15" s="20">
+        <f>(D7-H7)^2</f>
+        <v>0.14694444444444135</v>
+      </c>
+      <c r="M15" s="20">
+        <f>(E7-H7)^2</f>
+        <v>1.7361111111112099E-3</v>
+      </c>
+      <c r="N15" s="20">
+        <f>(F7-H7)^2</f>
+        <v>0.40111111111111053</v>
+      </c>
+      <c r="O15" s="21">
+        <f>(G7-H7)^2</f>
+        <v>5.4444444444443227E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="31">
+        <f>SUM(B11:G14)</f>
+        <v>67.978333333333339</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>6</v>
+      </c>
+      <c r="J17" s="31">
+        <f>SUM(J15:O15)</f>
+        <v>1.334583333333327</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="31">
+        <f>C17-J17</f>
+        <v>66.643750000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>J17/5</f>
+        <v>0.26691666666666541</v>
+      </c>
+      <c r="H21" s="32">
+        <f>F21/F22</f>
+        <v>7.2092281721841525E-2</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f>C20/18</f>
+        <v>3.7024305555555563</v>
+      </c>
+      <c r="H22" s="33">
+        <v>2.7728999999999999</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
